--- a/Cases/Result/resultOfWeb0324+23：18：27.xlsx
+++ b/Cases/Result/resultOfWeb0324+23：18：27.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>分组信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,9 @@
   <si>
     <t>购物车界面点击去结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1499,7 +1504,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
